--- a/sv/data/test.xlsx
+++ b/sv/data/test.xlsx
@@ -80,64 +80,64 @@
     <t>cost</t>
   </si>
   <si>
-    <t>Alex Albon</t>
+    <t>albon</t>
   </si>
   <si>
-    <t>Charles Lecrlec</t>
+    <t>leclerc</t>
   </si>
   <si>
-    <t>Esteban Ocon</t>
+    <t>ocon</t>
   </si>
   <si>
-    <t>Fernando Alonso</t>
+    <t>alonso</t>
   </si>
   <si>
-    <t>George Russel</t>
+    <t>russel</t>
   </si>
   <si>
-    <t>Guanyu Zhou</t>
+    <t>zhou</t>
   </si>
   <si>
-    <t>Kevin Magnussen</t>
+    <t>magnussen</t>
   </si>
   <si>
-    <t>Lance Stroll</t>
+    <t>stroll</t>
   </si>
   <si>
-    <t>Lando Norris</t>
+    <t>norris</t>
   </si>
   <si>
-    <t>Lewis Hamilton</t>
+    <t>hamilton</t>
   </si>
   <si>
-    <t>Logan Sargeant</t>
+    <t>sargeant</t>
   </si>
   <si>
-    <t>Max Verstappen</t>
+    <t>verstappen</t>
   </si>
   <si>
-    <t>Nico Hulkenberg</t>
+    <t>hulkenberg</t>
   </si>
   <si>
-    <t>Ricardo</t>
+    <t>ricardo</t>
   </si>
   <si>
-    <t>Oscar Piastri</t>
+    <t>piastri</t>
   </si>
   <si>
-    <t>Pierre Gasly</t>
+    <t>gasly</t>
   </si>
   <si>
-    <t>Carlos Sainz</t>
+    <t>sainz</t>
   </si>
   <si>
-    <t>Sergio Perez</t>
+    <t>perez</t>
   </si>
   <si>
-    <t>Valtreri Bottas</t>
+    <t>bottas</t>
   </si>
   <si>
-    <t>Yuki Tsunoda</t>
+    <t>tsunoda</t>
   </si>
   <si>
     <t>Alfa Romeo</t>
@@ -536,6 +536,9 @@
         <v>8.0</v>
       </c>
       <c r="S2" s="2"/>
+      <c r="W2" s="1">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -575,6 +578,9 @@
         <v>6.0</v>
       </c>
       <c r="S3" s="2"/>
+      <c r="W3" s="1">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -614,6 +620,9 @@
         <v>-18.0</v>
       </c>
       <c r="S4" s="2"/>
+      <c r="W4" s="1">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -653,6 +662,9 @@
         <v>12.0</v>
       </c>
       <c r="S5" s="2"/>
+      <c r="W5" s="1">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -692,6 +704,9 @@
         <v>18.0</v>
       </c>
       <c r="S6" s="2"/>
+      <c r="W6" s="1">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -731,6 +746,9 @@
         <v>6.0</v>
       </c>
       <c r="S7" s="2"/>
+      <c r="W7" s="1">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -770,6 +788,9 @@
         <v>-19.0</v>
       </c>
       <c r="S8" s="2"/>
+      <c r="W8" s="1">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -809,6 +830,9 @@
         <v>2.0</v>
       </c>
       <c r="S9" s="2"/>
+      <c r="W9" s="1">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -848,6 +872,9 @@
         <v>38.0</v>
       </c>
       <c r="S10" s="2"/>
+      <c r="W10" s="1">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -887,6 +914,9 @@
         <v>25.0</v>
       </c>
       <c r="S11" s="2"/>
+      <c r="W11" s="1">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -926,6 +956,9 @@
         <v>6.0</v>
       </c>
       <c r="S12" s="2"/>
+      <c r="W12" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -965,6 +998,9 @@
         <v>46.0</v>
       </c>
       <c r="S13" s="2"/>
+      <c r="W13" s="1">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -1004,6 +1040,9 @@
         <v>0.0</v>
       </c>
       <c r="S14" s="2"/>
+      <c r="W14" s="1">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -1043,6 +1082,9 @@
         <v>0.0</v>
       </c>
       <c r="S15" s="2"/>
+      <c r="W15" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -1082,6 +1124,9 @@
         <v>20.0</v>
       </c>
       <c r="S16" s="2"/>
+      <c r="W16" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -1121,6 +1166,9 @@
         <v>-3.0</v>
       </c>
       <c r="S17" s="2"/>
+      <c r="W17" s="1">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -1160,6 +1208,9 @@
         <v>4.0</v>
       </c>
       <c r="S18" s="2"/>
+      <c r="W18" s="1">
+        <v>17.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -1199,6 +1250,9 @@
         <v>26.0</v>
       </c>
       <c r="S19" s="2"/>
+      <c r="W19" s="1">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -1238,6 +1292,9 @@
         <v>-5.0</v>
       </c>
       <c r="S20" s="2"/>
+      <c r="W20" s="1">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -1277,6 +1334,9 @@
         <v>3.0</v>
       </c>
       <c r="S21" s="2"/>
+      <c r="W21" s="1">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="S22" s="2"/>

--- a/sv/data/test.xlsx
+++ b/sv/data/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>r0</t>
   </si>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -209,7 +209,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -535,9 +534,12 @@
       <c r="L2" s="1">
         <v>8.0</v>
       </c>
+      <c r="M2" s="1">
+        <v>8.0</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="W2" s="1">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -577,9 +579,12 @@
       <c r="L3" s="1">
         <v>6.0</v>
       </c>
+      <c r="M3" s="1">
+        <v>12.0</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="W3" s="1">
-        <v>21.9</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="4">
@@ -619,9 +624,12 @@
       <c r="L4" s="1">
         <v>-18.0</v>
       </c>
+      <c r="M4" s="1">
+        <v>-19.0</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="W4" s="1">
-        <v>9.8</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="5">
@@ -661,9 +669,12 @@
       <c r="L5" s="1">
         <v>12.0</v>
       </c>
+      <c r="M5" s="1">
+        <v>7.0</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="W5" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="6">
@@ -703,9 +714,12 @@
       <c r="L6" s="1">
         <v>18.0</v>
       </c>
+      <c r="M6" s="1">
+        <v>27.0</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="W6" s="1">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="7">
@@ -745,6 +759,9 @@
       <c r="L7" s="1">
         <v>6.0</v>
       </c>
+      <c r="M7" s="1">
+        <v>-4.0</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="W7" s="1">
         <v>5.2</v>
@@ -787,6 +804,9 @@
       <c r="L8" s="1">
         <v>-19.0</v>
       </c>
+      <c r="M8" s="1">
+        <v>5.0</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="W8" s="1">
         <v>6.8</v>
@@ -829,9 +849,12 @@
       <c r="L9" s="1">
         <v>2.0</v>
       </c>
+      <c r="M9" s="1">
+        <v>9.0</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="W9" s="1">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="10">
@@ -871,9 +894,12 @@
       <c r="L10" s="1">
         <v>38.0</v>
       </c>
+      <c r="M10" s="1">
+        <v>29.0</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="W10" s="1">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="11">
@@ -913,9 +939,12 @@
       <c r="L11" s="1">
         <v>25.0</v>
       </c>
+      <c r="M11" s="1">
+        <v>20.0</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="W11" s="1">
-        <v>24.7</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
@@ -955,6 +984,9 @@
       <c r="L12" s="1">
         <v>6.0</v>
       </c>
+      <c r="M12" s="1">
+        <v>2.0</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="W12" s="1">
         <v>4.5</v>
@@ -997,9 +1029,12 @@
       <c r="L13" s="1">
         <v>46.0</v>
       </c>
+      <c r="M13" s="1">
+        <v>46.0</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="W13" s="1">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="14">
@@ -1039,6 +1074,9 @@
       <c r="L14" s="1">
         <v>0.0</v>
       </c>
+      <c r="M14" s="1">
+        <v>0.0</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="W14" s="1">
         <v>3.8</v>
@@ -1081,6 +1119,9 @@
       <c r="L15" s="1">
         <v>0.0</v>
       </c>
+      <c r="M15" s="1">
+        <v>2.0</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="W15" s="1">
         <v>4.5</v>
@@ -1123,9 +1164,12 @@
       <c r="L16" s="1">
         <v>20.0</v>
       </c>
+      <c r="M16" s="1">
+        <v>18.0</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="W16" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
@@ -1165,9 +1209,12 @@
       <c r="L17" s="1">
         <v>-3.0</v>
       </c>
+      <c r="M17" s="1">
+        <v>-19.0</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="W17" s="1">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="18">
@@ -1207,9 +1254,12 @@
       <c r="L18" s="1">
         <v>4.0</v>
       </c>
+      <c r="M18" s="1">
+        <v>12.0</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="W18" s="1">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="19">
@@ -1249,9 +1299,12 @@
       <c r="L19" s="1">
         <v>26.0</v>
       </c>
+      <c r="M19" s="1">
+        <v>39.0</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="W19" s="1">
-        <v>19.3</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="20">
@@ -1291,6 +1344,9 @@
       <c r="L20" s="1">
         <v>-5.0</v>
       </c>
+      <c r="M20" s="1">
+        <v>0.0</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="W20" s="1">
         <v>7.9</v>
@@ -1332,6 +1388,9 @@
       </c>
       <c r="L21" s="1">
         <v>3.0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5.0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="W21" s="1">
@@ -4291,578 +4350,532 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>-10.0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O1" s="3">
-        <f t="shared" ref="O1:O10" si="1">SUM(B1:L1)</f>
-        <v>130</v>
-      </c>
-      <c r="P1" s="3">
-        <f t="shared" ref="P1:P10" si="2">SUM(H1:L1)</f>
-        <v>68</v>
-      </c>
-      <c r="T1" s="2">
-        <f t="shared" ref="T1:T10" si="3">O1/X1</f>
-        <v>22.03389831</v>
-      </c>
-      <c r="V1" s="2">
-        <f t="shared" ref="V1:V10" si="4">P1/X1</f>
-        <v>11.52542373</v>
-      </c>
-      <c r="X1" s="1">
-        <v>5.9</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
       <c r="C2" s="1">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
       <c r="E2" s="1">
-        <v>-23.0</v>
+        <v>-10.0</v>
       </c>
       <c r="F2" s="1">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="G2" s="1">
         <v>0.0</v>
       </c>
       <c r="H2" s="1">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="I2" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="J2" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="1">
         <v>6.0</v>
       </c>
-      <c r="K2" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="O2" s="3">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="P2" s="3">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="T2" s="2">
-        <f t="shared" si="3"/>
-        <v>15.16666667</v>
-      </c>
-      <c r="V2" s="2">
-        <f t="shared" si="4"/>
-        <v>8.666666667</v>
-      </c>
-      <c r="X2" s="1">
-        <v>6.0</v>
+      <c r="T2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="1">
+        <v>5.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="C3" s="1">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="E3" s="1">
-        <v>25.0</v>
+        <v>-23.0</v>
       </c>
       <c r="F3" s="1">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="G3" s="1">
         <v>0.0</v>
       </c>
       <c r="H3" s="1">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
       <c r="I3" s="1">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="J3" s="1">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="K3" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="L3" s="1">
-        <v>-16.0</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="P3" s="3">
-        <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="T3" s="2">
-        <f t="shared" si="3"/>
-        <v>19.61538462</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="X3" s="1">
-        <v>10.4</v>
+        <v>5.0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="1">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" s="1">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="D4" s="1">
-        <v>54.0</v>
+        <v>11.0</v>
       </c>
       <c r="E4" s="1">
-        <v>55.0</v>
+        <v>25.0</v>
       </c>
       <c r="F4" s="1">
-        <v>42.0</v>
+        <v>28.0</v>
       </c>
       <c r="G4" s="1">
         <v>0.0</v>
       </c>
       <c r="H4" s="1">
-        <v>15.0</v>
+        <v>42.0</v>
       </c>
       <c r="I4" s="1">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="J4" s="1">
-        <v>46.0</v>
+        <v>24.0</v>
       </c>
       <c r="K4" s="1">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
       <c r="L4" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="O4" s="3">
-        <f t="shared" si="1"/>
-        <v>412</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="T4" s="2">
-        <f t="shared" si="3"/>
-        <v>45.77777778</v>
-      </c>
-      <c r="V4" s="2">
-        <f t="shared" si="4"/>
-        <v>20.66666667</v>
-      </c>
-      <c r="X4" s="1">
-        <v>9.0</v>
+        <v>-16.0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-35.0</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="1">
+        <v>10.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
-        <v>31.0</v>
+        <v>56.0</v>
       </c>
       <c r="C5" s="1">
-        <v>59.0</v>
+        <v>19.0</v>
       </c>
       <c r="D5" s="1">
-        <v>3.0</v>
+        <v>54.0</v>
       </c>
       <c r="E5" s="1">
-        <v>63.0</v>
+        <v>55.0</v>
       </c>
       <c r="F5" s="1">
-        <v>56.0</v>
+        <v>42.0</v>
       </c>
       <c r="G5" s="1">
         <v>0.0</v>
       </c>
       <c r="H5" s="1">
-        <v>37.0</v>
+        <v>15.0</v>
       </c>
       <c r="I5" s="1">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" s="1">
         <v>46.0</v>
       </c>
       <c r="K5" s="1">
-        <v>73.0</v>
+        <v>63.0</v>
       </c>
       <c r="L5" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="1"/>
-        <v>431</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="2"/>
-        <v>219</v>
-      </c>
-      <c r="T5" s="2">
-        <f t="shared" si="3"/>
-        <v>18.8209607</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="4"/>
-        <v>9.563318777</v>
-      </c>
-      <c r="X5" s="1">
-        <v>22.9</v>
+        <v>22.0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="1">
+        <v>9.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
-        <v>12.0</v>
+        <v>31.0</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0</v>
+        <v>59.0</v>
       </c>
       <c r="D6" s="1">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" s="1">
-        <v>17.0</v>
+        <v>63.0</v>
       </c>
       <c r="F6" s="1">
-        <v>15.0</v>
+        <v>56.0</v>
       </c>
       <c r="G6" s="1">
         <v>0.0</v>
       </c>
       <c r="H6" s="1">
-        <v>7.0</v>
+        <v>37.0</v>
       </c>
       <c r="I6" s="1">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
       <c r="J6" s="1">
-        <v>4.0</v>
+        <v>46.0</v>
       </c>
       <c r="K6" s="1">
-        <v>14.0</v>
+        <v>73.0</v>
       </c>
       <c r="L6" s="1">
-        <v>-18.0</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="T6" s="2">
-        <f t="shared" si="3"/>
-        <v>20.20408163</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="4"/>
-        <v>4.897959184</v>
-      </c>
-      <c r="X6" s="1">
-        <v>4.9</v>
+        <v>25.0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="1">
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
-        <v>-16.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="D7" s="1">
-        <v>36.0</v>
+        <v>18.0</v>
       </c>
       <c r="E7" s="1">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F7" s="1">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" s="1">
         <v>0.0</v>
       </c>
       <c r="H7" s="1">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="I7" s="1">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="K7" s="1">
-        <v>54.0</v>
+        <v>14.0</v>
       </c>
       <c r="L7" s="1">
-        <v>68.0</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="1"/>
-        <v>228</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="2"/>
-        <v>163</v>
-      </c>
-      <c r="T7" s="2">
-        <f t="shared" si="3"/>
-        <v>21.11111111</v>
-      </c>
-      <c r="V7" s="2">
-        <f t="shared" si="4"/>
-        <v>15.09259259</v>
-      </c>
-      <c r="X7" s="1">
-        <v>10.8</v>
+        <v>-18.0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="1">
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
-        <v>45.0</v>
+        <v>-16.0</v>
       </c>
       <c r="C8" s="1">
-        <v>44.0</v>
+        <v>14.0</v>
       </c>
       <c r="D8" s="1">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="E8" s="1">
-        <v>49.0</v>
+        <v>23.0</v>
       </c>
       <c r="F8" s="1">
-        <v>57.0</v>
+        <v>8.0</v>
       </c>
       <c r="G8" s="1">
         <v>0.0</v>
       </c>
       <c r="H8" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="K8" s="1">
         <v>54.0</v>
       </c>
-      <c r="I8" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>70.0</v>
-      </c>
       <c r="L8" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="1"/>
-        <v>490</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="2"/>
-        <v>263</v>
-      </c>
-      <c r="T8" s="2">
-        <f t="shared" si="3"/>
-        <v>19.36758893</v>
-      </c>
-      <c r="V8" s="2">
-        <f t="shared" si="4"/>
-        <v>10.39525692</v>
-      </c>
-      <c r="X8" s="1">
-        <v>25.3</v>
+        <v>68.0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="1">
+        <v>11.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
-        <v>78.0</v>
+        <v>45.0</v>
       </c>
       <c r="C9" s="1">
-        <v>95.0</v>
+        <v>44.0</v>
       </c>
       <c r="D9" s="1">
-        <v>98.0</v>
+        <v>32.0</v>
       </c>
       <c r="E9" s="1">
-        <v>108.0</v>
+        <v>49.0</v>
       </c>
       <c r="F9" s="1">
-        <v>97.0</v>
+        <v>57.0</v>
       </c>
       <c r="G9" s="1">
         <v>0.0</v>
       </c>
       <c r="H9" s="1">
-        <v>63.0</v>
+        <v>54.0</v>
       </c>
       <c r="I9" s="1">
-        <v>96.0</v>
+        <v>65.0</v>
       </c>
       <c r="J9" s="1">
-        <v>86.0</v>
+        <v>21.0</v>
       </c>
       <c r="K9" s="1">
-        <v>112.0</v>
+        <v>70.0</v>
       </c>
       <c r="L9" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="1"/>
-        <v>910</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" si="2"/>
-        <v>434</v>
-      </c>
-      <c r="T9" s="2">
-        <f t="shared" si="3"/>
-        <v>32.04225352</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="4"/>
-        <v>15.28169014</v>
-      </c>
-      <c r="X9" s="1">
-        <v>28.4</v>
+        <v>53.0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="1">
+        <v>25.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>25.0</v>
+        <v>78.0</v>
       </c>
       <c r="C10" s="1">
-        <v>-16.0</v>
+        <v>95.0</v>
       </c>
       <c r="D10" s="1">
-        <v>-5.0</v>
+        <v>98.0</v>
       </c>
       <c r="E10" s="1">
-        <v>-15.0</v>
+        <v>108.0</v>
       </c>
       <c r="F10" s="1">
-        <v>1.0</v>
+        <v>97.0</v>
       </c>
       <c r="G10" s="1">
         <v>0.0</v>
       </c>
       <c r="H10" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="1">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-16.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-5.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-15.0</v>
+      </c>
+      <c r="F11" s="1">
         <v>1.0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="1">
         <v>5.0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="1">
         <v>-2.0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="1">
         <v>35.0</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <v>19.0</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="T10" s="2">
-        <f t="shared" si="3"/>
-        <v>8.727272727</v>
-      </c>
-      <c r="V10" s="2">
-        <f t="shared" si="4"/>
-        <v>10.54545455</v>
-      </c>
-      <c r="X10" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="M11" s="1">
+        <v>9.0</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="V11" s="2"/>
+      <c r="W11" s="1">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="T12" s="2"/>

--- a/sv/data/test.xlsx
+++ b/sv/data/test.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="S2" s="2"/>
       <c r="W2" s="1">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3">
@@ -584,7 +584,7 @@
       </c>
       <c r="S3" s="2"/>
       <c r="W3" s="1">
-        <v>22.0</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
       </c>
       <c r="S4" s="2"/>
       <c r="W4" s="1">
-        <v>9.7</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="5">
@@ -674,7 +674,7 @@
       </c>
       <c r="S5" s="2"/>
       <c r="W5" s="1">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="6">
@@ -719,7 +719,7 @@
       </c>
       <c r="S6" s="2"/>
       <c r="W6" s="1">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="7">
@@ -854,7 +854,7 @@
       </c>
       <c r="S9" s="2"/>
       <c r="W9" s="1">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10">
@@ -899,7 +899,7 @@
       </c>
       <c r="S10" s="2"/>
       <c r="W10" s="1">
-        <v>13.9</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="11">
@@ -944,7 +944,7 @@
       </c>
       <c r="S11" s="2"/>
       <c r="W11" s="1">
-        <v>25.0</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="12">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="S13" s="2"/>
       <c r="W13" s="1">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="14">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="S16" s="2"/>
       <c r="W16" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="S17" s="2"/>
       <c r="W17" s="1">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="18">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="S18" s="2"/>
       <c r="W18" s="1">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="19">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="S19" s="2"/>
       <c r="W19" s="1">
-        <v>20.3</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="20">
@@ -4454,9 +4454,6 @@
       <c r="L2" s="1">
         <v>0.0</v>
       </c>
-      <c r="M2" s="1">
-        <v>6.0</v>
-      </c>
       <c r="T2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="1">
@@ -4500,9 +4497,6 @@
       <c r="L3" s="1">
         <v>5.0</v>
       </c>
-      <c r="M3" s="1">
-        <v>8.0</v>
-      </c>
       <c r="T3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="1">
@@ -4546,13 +4540,10 @@
       <c r="L4" s="1">
         <v>-16.0</v>
       </c>
-      <c r="M4" s="1">
-        <v>-35.0</v>
-      </c>
       <c r="T4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="1">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="5">
@@ -4592,13 +4583,10 @@
       <c r="L5" s="1">
         <v>22.0</v>
       </c>
-      <c r="M5" s="1">
-        <v>21.0</v>
-      </c>
       <c r="T5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="1">
-        <v>9.5</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -4638,13 +4626,10 @@
       <c r="L6" s="1">
         <v>25.0</v>
       </c>
-      <c r="M6" s="1">
-        <v>32.0</v>
-      </c>
       <c r="T6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>23.0</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="7">
@@ -4683,9 +4668,6 @@
       </c>
       <c r="L7" s="1">
         <v>-18.0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10.0</v>
       </c>
       <c r="T7" s="2"/>
       <c r="V7" s="2"/>
@@ -4730,13 +4712,10 @@
       <c r="L8" s="1">
         <v>68.0</v>
       </c>
-      <c r="M8" s="1">
-        <v>62.0</v>
-      </c>
       <c r="T8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>11.8</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="9">
@@ -4776,13 +4755,10 @@
       <c r="L9" s="1">
         <v>53.0</v>
       </c>
-      <c r="M9" s="1">
-        <v>52.0</v>
-      </c>
       <c r="T9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="10">
@@ -4822,13 +4798,10 @@
       <c r="L10" s="1">
         <v>77.0</v>
       </c>
-      <c r="M10" s="1">
-        <v>95.0</v>
-      </c>
       <c r="T10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="11">
@@ -4867,9 +4840,6 @@
       </c>
       <c r="L11" s="1">
         <v>19.0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>9.0</v>
       </c>
       <c r="T11" s="2"/>
       <c r="V11" s="2"/>

--- a/sv/data/test.xlsx
+++ b/sv/data/test.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="S2" s="2"/>
       <c r="W2" s="1">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -584,7 +584,7 @@
       </c>
       <c r="S3" s="2"/>
       <c r="W3" s="1">
-        <v>21.9</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
       </c>
       <c r="S4" s="2"/>
       <c r="W4" s="1">
-        <v>9.8</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="5">
@@ -674,7 +674,7 @@
       </c>
       <c r="S5" s="2"/>
       <c r="W5" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="6">
@@ -719,7 +719,7 @@
       </c>
       <c r="S6" s="2"/>
       <c r="W6" s="1">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="7">
@@ -854,7 +854,7 @@
       </c>
       <c r="S9" s="2"/>
       <c r="W9" s="1">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="10">
@@ -899,7 +899,7 @@
       </c>
       <c r="S10" s="2"/>
       <c r="W10" s="1">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="11">
@@ -944,7 +944,7 @@
       </c>
       <c r="S11" s="2"/>
       <c r="W11" s="1">
-        <v>24.7</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="S13" s="2"/>
       <c r="W13" s="1">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="14">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="S16" s="2"/>
       <c r="W16" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="S17" s="2"/>
       <c r="W17" s="1">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="18">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="S18" s="2"/>
       <c r="W18" s="1">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="19">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="S19" s="2"/>
       <c r="W19" s="1">
-        <v>19.3</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="20">
@@ -4454,6 +4454,9 @@
       <c r="L2" s="1">
         <v>0.0</v>
       </c>
+      <c r="M2" s="1">
+        <v>6.0</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="1">
@@ -4497,6 +4500,9 @@
       <c r="L3" s="1">
         <v>5.0</v>
       </c>
+      <c r="M3" s="1">
+        <v>8.0</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="1">
@@ -4540,10 +4546,13 @@
       <c r="L4" s="1">
         <v>-16.0</v>
       </c>
+      <c r="M4" s="1">
+        <v>-35.0</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="1">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="5">
@@ -4583,10 +4592,13 @@
       <c r="L5" s="1">
         <v>22.0</v>
       </c>
+      <c r="M5" s="1">
+        <v>21.0</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="1">
-        <v>9.0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6">
@@ -4626,10 +4638,13 @@
       <c r="L6" s="1">
         <v>25.0</v>
       </c>
+      <c r="M6" s="1">
+        <v>32.0</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>29.9</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -4668,6 +4683,9 @@
       </c>
       <c r="L7" s="1">
         <v>-18.0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>10.0</v>
       </c>
       <c r="T7" s="2"/>
       <c r="V7" s="2"/>
@@ -4712,10 +4730,13 @@
       <c r="L8" s="1">
         <v>68.0</v>
       </c>
+      <c r="M8" s="1">
+        <v>62.0</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="9">
@@ -4755,10 +4776,13 @@
       <c r="L9" s="1">
         <v>53.0</v>
       </c>
+      <c r="M9" s="1">
+        <v>52.0</v>
+      </c>
       <c r="T9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="10">
@@ -4798,10 +4822,13 @@
       <c r="L10" s="1">
         <v>77.0</v>
       </c>
+      <c r="M10" s="1">
+        <v>95.0</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="11">
@@ -4840,6 +4867,9 @@
       </c>
       <c r="L11" s="1">
         <v>19.0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>9.0</v>
       </c>
       <c r="T11" s="2"/>
       <c r="V11" s="2"/>

--- a/sv/data/test.xlsx
+++ b/sv/data/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>r0</t>
   </si>
@@ -80,6 +80,9 @@
     <t>r21</t>
   </si>
   <si>
+    <t>r22</t>
+  </si>
+  <si>
     <t>cost</t>
   </si>
   <si>
@@ -143,10 +146,10 @@
     <t>tsunoda</t>
   </si>
   <si>
-    <t>Alfa Romeo</t>
+    <t>Sauber</t>
   </si>
   <si>
-    <t>AlphaTauri</t>
+    <t>RB</t>
   </si>
   <si>
     <t>Alpine</t>
@@ -450,6 +453,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="5" max="8" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
@@ -521,10 +527,13 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>13.0</v>
@@ -592,13 +601,16 @@
       <c r="W2" s="2">
         <v>0.0</v>
       </c>
-      <c r="X2" s="3">
-        <v>11.3</v>
+      <c r="X2" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>-11.0</v>
@@ -666,13 +678,16 @@
       <c r="W3" s="2">
         <v>41.0</v>
       </c>
-      <c r="X3" s="3">
-        <v>23.5</v>
+      <c r="X3" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>19.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>-17.0</v>
@@ -740,13 +755,16 @@
       <c r="W4" s="2">
         <v>40.0</v>
       </c>
-      <c r="X4" s="3">
-        <v>13.5</v>
+      <c r="X4" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>7.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>39.0</v>
@@ -814,13 +832,16 @@
       <c r="W5" s="2">
         <v>12.0</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="Y5" s="3">
         <v>15.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
         <v>16.0</v>
@@ -888,13 +909,16 @@
       <c r="W6" s="2">
         <v>14.0</v>
       </c>
-      <c r="X6" s="3">
-        <v>20.2</v>
+      <c r="X6" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>18.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>15.0</v>
@@ -962,13 +986,16 @@
       <c r="W7" s="2">
         <v>12.0</v>
       </c>
-      <c r="X7" s="3">
-        <v>7.7</v>
+      <c r="X7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>6.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>8.0</v>
@@ -1036,13 +1063,16 @@
       <c r="W8" s="2">
         <v>5.0</v>
       </c>
-      <c r="X8" s="3">
-        <v>9.6</v>
+      <c r="X8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>6.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>17.0</v>
@@ -1110,13 +1140,16 @@
       <c r="W9" s="2">
         <v>39.0</v>
       </c>
-      <c r="X9" s="3">
-        <v>14.0</v>
+      <c r="X9" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>10.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <v>-1.0</v>
@@ -1184,13 +1217,16 @@
       <c r="W10" s="2">
         <v>-14.0</v>
       </c>
-      <c r="X10" s="3">
-        <v>19.8</v>
+      <c r="X10" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>23.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
         <v>19.0</v>
@@ -1258,13 +1294,16 @@
       <c r="W11" s="2">
         <v>26.0</v>
       </c>
-      <c r="X11" s="3">
-        <v>25.3</v>
+      <c r="X11" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>19.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1">
         <v>11.0</v>
@@ -1332,13 +1371,16 @@
       <c r="W12" s="2">
         <v>-3.0</v>
       </c>
-      <c r="X12" s="3">
-        <v>5.8</v>
+      <c r="X12" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>5.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
         <v>35.0</v>
@@ -1406,13 +1448,16 @@
       <c r="W13" s="2">
         <v>44.0</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="Y13" s="3">
         <v>30.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>-1.0</v>
@@ -1480,13 +1525,16 @@
       <c r="W14" s="2">
         <v>2.0</v>
       </c>
-      <c r="X14" s="3">
-        <v>6.2</v>
+      <c r="X14" s="2">
+        <v>-3.0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>6.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -1554,13 +1602,16 @@
       <c r="W15" s="2">
         <v>6.0</v>
       </c>
-      <c r="X15" s="3">
-        <v>5.5</v>
+      <c r="X15" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1">
         <v>-16.0</v>
@@ -1628,13 +1679,16 @@
       <c r="W16" s="2">
         <v>39.0</v>
       </c>
-      <c r="X16" s="3">
-        <v>15.4</v>
+      <c r="X16" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>20.0</v>
@@ -1702,13 +1756,16 @@
       <c r="W17" s="2">
         <v>1.0</v>
       </c>
-      <c r="X17" s="3">
-        <v>14.5</v>
+      <c r="X17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>7.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>19.0</v>
@@ -1776,13 +1833,16 @@
       <c r="W18" s="2">
         <v>34.0</v>
       </c>
-      <c r="X18" s="3">
-        <v>20.4</v>
+      <c r="X18" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>18.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>28.0</v>
@@ -1850,13 +1910,16 @@
       <c r="W19" s="2">
         <v>35.0</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="Y19" s="3">
         <v>20.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>13.0</v>
@@ -1924,13 +1987,16 @@
       <c r="W20" s="2">
         <v>-5.0</v>
       </c>
-      <c r="X20" s="3">
-        <v>9.6</v>
+      <c r="X20" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>6.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
         <v>8.0</v>
@@ -1998,8 +2064,11 @@
       <c r="W21" s="2">
         <v>14.0</v>
       </c>
-      <c r="X21" s="3">
-        <v>9.4</v>
+      <c r="X21" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>8.0</v>
       </c>
     </row>
     <row r="22">
@@ -4953,6 +5022,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="3" max="8" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
@@ -5024,10 +5096,13 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>31.0</v>
@@ -5096,12 +5171,15 @@
         <v>12.0</v>
       </c>
       <c r="X2" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="Y2" s="6">
         <v>6.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>17.0</v>
@@ -5170,12 +5248,15 @@
         <v>26.0</v>
       </c>
       <c r="X3" s="6">
-        <v>8.7</v>
+        <v>27.0</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>8.0</v>
@@ -5244,12 +5325,15 @@
         <v>46.0</v>
       </c>
       <c r="X4" s="6">
-        <v>14.2</v>
+        <v>11.0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>56.0</v>
@@ -5318,12 +5402,15 @@
         <v>56.0</v>
       </c>
       <c r="X5" s="6">
-        <v>13.4</v>
+        <v>32.0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>13.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>31.0</v>
@@ -5392,12 +5479,15 @@
         <v>78.0</v>
       </c>
       <c r="X6" s="6">
-        <v>25.0</v>
+        <v>48.0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>19.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>12.0</v>
@@ -5466,12 +5556,15 @@
         <v>12.0</v>
       </c>
       <c r="X7" s="6">
-        <v>7.2</v>
+        <v>2.0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>6.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>-16.0</v>
@@ -5540,12 +5633,15 @@
         <v>34.0</v>
       </c>
       <c r="X8" s="6">
-        <v>17.1</v>
+        <v>59.0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>23.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>45.0</v>
@@ -5614,12 +5710,15 @@
         <v>45.0</v>
       </c>
       <c r="X9" s="6">
-        <v>26.0</v>
+        <v>51.0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>20.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>78.0</v>
@@ -5688,12 +5787,15 @@
         <v>84.0</v>
       </c>
       <c r="X10" s="6">
-        <v>29.7</v>
+        <v>87.0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>27.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>25.0</v>
@@ -5762,7 +5864,10 @@
         <v>7.0</v>
       </c>
       <c r="X11" s="6">
-        <v>7.8</v>
+        <v>12.0</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>6.3</v>
       </c>
     </row>
     <row r="12">

--- a/sv/data/test.xlsx
+++ b/sv/data/test.xlsx
@@ -146,12 +146,6 @@
     <t>tsunoda</t>
   </si>
   <si>
-    <t>Sauber</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
     <t>Alpine</t>
   </si>
   <si>
@@ -164,10 +158,16 @@
     <t>Haas</t>
   </si>
   <si>
+    <t>Sauber</t>
+  </si>
+  <si>
     <t>McLaren</t>
   </si>
   <si>
     <t>Mercedes</t>
+  </si>
+  <si>
+    <t>RB</t>
   </si>
   <si>
     <t>Red Bull</t>
@@ -535,1540 +535,500 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-17.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-15.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="B2" s="2">
         <v>0.0</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>-15.0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>-11.0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="X2" s="2">
+      <c r="C2" s="2">
         <v>6.0</v>
       </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
       <c r="Y2" s="3">
-        <v>7.0</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1">
-        <v>-11.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-15.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>-7.0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="B3" s="2">
         <v>22.0</v>
       </c>
-      <c r="R3" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>-10.0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>-3.0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>29.0</v>
-      </c>
+      <c r="C3" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
       <c r="Y3" s="3">
-        <v>19.1</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1">
-        <v>-17.0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2">
         <v>7.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C4" s="2">
         <v>8.0</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-18.0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-19.0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>-18.0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>-13.0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>-10.0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
       <c r="Y4" s="3">
-        <v>7.8</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="B5" s="2">
         <v>7.0</v>
       </c>
-      <c r="N5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>62.0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="R5" s="2">
+      <c r="C5" s="2">
         <v>16.0</v>
       </c>
-      <c r="S5" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-9.0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-16.0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>16.0</v>
-      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
       <c r="Y5" s="3">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-7.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-12.0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>-2.0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>37.0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>32.0</v>
-      </c>
+      <c r="B6" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
       <c r="Y6" s="3">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-10.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="B7" s="2">
         <v>11.0</v>
       </c>
-      <c r="I7" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>-4.0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>-9.0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>-11.0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>10.0</v>
-      </c>
+      <c r="C7" s="2">
+        <v>-2.0</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
       <c r="Y7" s="3">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-19.0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>-16.0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>-21.0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="B8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
       <c r="Y8" s="3">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-14.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-17.0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>-14.0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="U9" s="2">
+      <c r="B9" s="2">
         <v>8.0</v>
       </c>
-      <c r="V9" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="X9" s="2">
+      <c r="C9" s="2">
+        <v>-7.0</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="3">
         <v>11.0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>10.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-2.0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>46.0</v>
-      </c>
-      <c r="U10" s="2">
-        <v>48.0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>57.0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>-14.0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>22.0</v>
-      </c>
+      <c r="B10" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
       <c r="Y10" s="3">
-        <v>23.0</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="B11" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C11" s="2">
         <v>6.0</v>
       </c>
-      <c r="T11" s="2">
-        <v>-4.0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>14.0</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
       <c r="Y11" s="3">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-20.0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-19.0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="B12" s="2">
         <v>3.0</v>
       </c>
-      <c r="O12" s="2">
-        <v>-18.0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>-21.0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>-34.0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>-3.0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>5.5</v>
+      <c r="C12" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="3">
+        <v>5.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="C13" s="2">
         <v>36.0</v>
       </c>
-      <c r="E13" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>68.0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>46.0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>38.0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>47.0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>62.0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>53.0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>42.0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>44.0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>47.0</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
       <c r="Y13" s="3">
-        <v>30.0</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>-4.0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>-2.0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>-18.0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="X14" s="2">
+      <c r="B14" s="2">
         <v>-3.0</v>
       </c>
+      <c r="C14" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
       <c r="Y14" s="3">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.0</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>11.0</v>
-      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
       <c r="Y15" s="3">
-        <v>9.0</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1">
-        <v>-16.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>-7.0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>35.0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>56.0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>-20.0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>19.0</v>
-      </c>
+      <c r="B16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
       <c r="Y16" s="3">
-        <v>19.0</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="2">
         <v>6.0</v>
       </c>
-      <c r="D17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-3.0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>-19.0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="W17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="X17" s="2">
-        <v>4.0</v>
-      </c>
+      <c r="C17" s="2">
+        <v>-20.0</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
       <c r="Y17" s="3">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>-8.0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>38.0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>-14.0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="X18" s="2">
-        <v>4.0</v>
-      </c>
+      <c r="B18" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
       <c r="Y18" s="3">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="R19" s="2">
-        <v>-11.0</v>
-      </c>
-      <c r="S19" s="2">
-        <v>-3.0</v>
-      </c>
-      <c r="T19" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>-10.0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>37.0</v>
-      </c>
-      <c r="W19" s="2">
-        <v>35.0</v>
-      </c>
-      <c r="X19" s="2">
-        <v>30.0</v>
-      </c>
+      <c r="B19" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
       <c r="Y19" s="3">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>-2.0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="B20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="2">
         <v>-1.0</v>
       </c>
-      <c r="F20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="3">
         <v>6.0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-5.0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>-18.0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>-17.0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>-19.0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>-5.0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>6.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>-13.0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>-4.0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>-20.0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>-17.0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="W21" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="X21" s="2">
-        <v>21.0</v>
-      </c>
+      <c r="B21" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
       <c r="Y21" s="3">
-        <v>8.0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="22">
@@ -5023,7 +3983,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col hidden="1" min="3" max="8" width="12.63"/>
+    <col hidden="1" min="13" max="24" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5104,770 +4064,250 @@
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-10.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="B2" s="2">
         <v>12.0</v>
       </c>
-      <c r="Q2" s="2">
-        <v>-8.0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>-10.0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>-31.0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>13.0</v>
-      </c>
+      <c r="C2" s="2">
+        <v>-13.0</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="6"/>
       <c r="Y2" s="6">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-23.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="B3" s="2">
         <v>20.0</v>
       </c>
-      <c r="J3" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>36.0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>-12.0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>-4.0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>-4.0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>42.0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="X3" s="6">
-        <v>27.0</v>
-      </c>
+      <c r="C3" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="6"/>
       <c r="Y3" s="6">
-        <v>8.5</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-16.0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-35.0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>43.0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>66.0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>-16.0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>44.0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>46.0</v>
-      </c>
-      <c r="X4" s="6">
-        <v>11.0</v>
-      </c>
+      <c r="B4" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="6"/>
       <c r="Y4" s="6">
-        <v>8.4</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="C5" s="2">
         <v>19.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>67.0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>47.0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-7.0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>77.0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>56.0</v>
-      </c>
-      <c r="X5" s="6">
-        <v>32.0</v>
-      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="6"/>
       <c r="Y5" s="6">
-        <v>13.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>38.0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>67.0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>35.0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>63.0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>78.0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>48.0</v>
-      </c>
+      <c r="B6" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-4.0</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="6"/>
       <c r="Y6" s="6">
-        <v>19.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-18.0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>-7.0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>-19.0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="X7" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="B7" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="6"/>
       <c r="Y7" s="6">
-        <v>6.3</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="1">
-        <v>-16.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="C8" s="2">
         <v>36.0</v>
       </c>
-      <c r="E8" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>68.0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>62.0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>56.0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>44.0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>66.0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>110.0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>36.0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>57.0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="X8" s="6">
-        <v>59.0</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="6"/>
       <c r="Y8" s="6">
-        <v>23.2</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>44.0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>47.0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>44.0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>53.0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>69.0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="X9" s="6">
-        <v>51.0</v>
-      </c>
+      <c r="B9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="6"/>
       <c r="Y9" s="6">
-        <v>20.1</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1">
-        <v>78.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>108.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>97.0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>96.0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>86.0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>81.0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>54.0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>46.0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>95.0</v>
-      </c>
-      <c r="U10" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>105.0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>84.0</v>
-      </c>
-      <c r="X10" s="6">
-        <v>87.0</v>
-      </c>
+      <c r="B10" s="2">
+        <v>89.0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="6"/>
       <c r="Y10" s="6">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-16.0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-5.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-15.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-2.0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>-35.0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>-10.0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="X11" s="6">
-        <v>12.0</v>
-      </c>
+      <c r="B11" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="6"/>
       <c r="Y11" s="6">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="12">
